--- a/aiurt-module-system/src/main/resources/templates/sensorinformation.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sensorinformation.xlsx
@@ -19,18 +19,21 @@
     <t>传感器信息数据模板</t>
   </si>
   <si>
-    <t xml:space="preserve">巡检标准表数据
+    <t>传感器信息数据
 填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；其次删除填写的数据，要直接删除整行，不然导入会失败
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
-</t>
+1.线路：填写，必须是系统已存在的线路code
+2.站点名称：填写，必须是系统已存在的线路下的站点code
+3.ip:传感器设备的地址ip，并且唯一
+注意：一个下线路的站点，只能有一条数据存在</t>
   </si>
   <si>
-    <t>线路</t>
+    <t>线路code</t>
   </si>
   <si>
-    <t>站点</t>
+    <t>站点code</t>
   </si>
   <si>
     <t>对应IP地址</t>
@@ -65,7 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -215,12 +218,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -520,46 +529,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,28 +589,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -610,19 +619,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,38 +640,41 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,6 +683,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1025,15 +1037,18 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1046,7 +1061,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="240" customHeight="1" spans="1:6">
+    <row r="2" ht="156" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1057,22 +1072,22 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/sensorinformation.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sensorinformation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12270"/>
+    <workbookView windowWidth="23760" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="传感器信息数据模板" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -532,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,34 +550,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,98 +586,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +691,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1047,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1087,7 +1096,7 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
